--- a/outputs-GTDB-r202/f__Selenomonadaceae.xlsx
+++ b/outputs-GTDB-r202/f__Selenomonadaceae.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>g__Selenomonas_A</t>
+          <t>g__Selenomonas_A(reject)</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>g__Selenomonas_A</t>
+          <t>g__Selenomonas_A(reject)</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>g__UBA2913</t>
+          <t>g__UBA2913(reject)</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>g__UBA2913</t>
+          <t>g__UBA2913(reject)</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>g__UBA2913</t>
+          <t>g__UBA2913(reject)</t>
         </is>
       </c>
     </row>
